--- a/Localization/PopGuide_Translations_V17.xlsx
+++ b/Localization/PopGuide_Translations_V17.xlsx
@@ -167,6 +167,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">한국어 </t>
     </r>
@@ -754,6 +755,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">주의</t>
     </r>
@@ -809,6 +811,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">現在地を計算するには位置情報サービスが必要です。</t>
     </r>
@@ -826,6 +829,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">アプリの設定から有効にして下さい。</t>
     </r>
@@ -836,6 +840,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">현재 위치를 찾으려면 위치 서비스가 필요합니다</t>
     </r>
@@ -853,6 +858,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">앱 설정에서 사용하도록 설정하십시오</t>
     </r>
@@ -881,6 +887,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">计算当前位置所需地点服务功能</t>
     </r>
@@ -898,6 +905,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">请从应用程序的设置中启动</t>
     </r>
@@ -938,6 +946,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">다른 계정으로 전환하고 있습니다</t>
     </r>
@@ -999,6 +1008,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">네트워크 오류</t>
     </r>
@@ -1057,6 +1067,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">インターネットの接続が見つかりません。</t>
     </r>
@@ -1074,6 +1085,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">再度お試しください。</t>
     </r>
@@ -1084,6 +1096,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">인터넷 연결을 찾을 수 없습니다</t>
     </r>
@@ -1101,6 +1114,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">나중에 다시 시도하십시오</t>
     </r>
@@ -1129,6 +1143,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">未找到网络连接。</t>
     </r>
@@ -1146,6 +1161,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">请稍后再试</t>
     </r>
@@ -1186,6 +1202,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">계속 사용하려면 앱을 업데이트 해야합니다</t>
     </r>
@@ -1244,6 +1261,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">あなたの現在地は圏外です</t>
     </r>
@@ -1261,6 +1279,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ルート計算とナビゲーションはできません。</t>
     </r>
@@ -1271,6 +1290,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">현재 위치가 도시 제한을 벗어났습니다</t>
     </r>
@@ -1288,6 +1308,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">경로 계산 및 탐색이 불가능합니다</t>
     </r>
@@ -1316,6 +1337,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">您当前的位置超出城区范围</t>
     </r>
@@ -1333,6 +1355,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">路线计算及导航无法使用</t>
     </r>
@@ -1373,6 +1396,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">사용자 이름과 암호를 입력하십시오</t>
     </r>
@@ -1480,6 +1504,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">사용자 이름과 암호를 확인한 후 다시 시도하십시오</t>
     </r>
@@ -1541,6 +1566,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">삭제하시겠습니까</t>
     </r>
@@ -1599,6 +1625,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">このツァーの内容を削除しますか？</t>
     </r>
@@ -1616,6 +1643,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ツアーのエントリは引き続きこのリストに表示され、将来コンテンツを再ダウンロードすることができます。</t>
     </r>
@@ -1626,6 +1654,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">이 여행을 삭제 하시겠습니까</t>
     </r>
@@ -1643,6 +1672,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">이 여행은 다시 다운로드 할 수 있습니다</t>
     </r>
@@ -1671,6 +1701,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">您确定要删除此次行程的内容吗？</t>
     </r>
@@ -1688,6 +1719,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">行程”的条目将继续显示在此列表中，以便您将来可以重新下载该内容。</t>
     </r>
@@ -1736,6 +1768,7 @@
         <color rgb="FF333333"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">コードスキャナにはカメラ権限が必要です。 アプリの設定から有効にしてください。</t>
     </r>
@@ -1755,6 +1788,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">코드 스캐너에 카메라가 필요합니다</t>
     </r>
@@ -1772,6 +1806,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">앱 설정에서 활성화하십시오</t>
     </r>
@@ -1839,6 +1874,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">が有効になっていません。</t>
     </r>
@@ -1858,6 +1894,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">해제</t>
     </r>
@@ -1886,6 +1923,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">无法启用</t>
     </r>
@@ -1932,6 +1970,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">を有効にしてもう一度お試し下さい。</t>
     </r>
@@ -1951,6 +1990,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">를 사용하도록 설정하고 다시 시도하십시오</t>
     </r>
@@ -1979,6 +2019,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">请启用</t>
     </r>
@@ -1996,6 +2037,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">并重试</t>
     </r>
@@ -2174,6 +2216,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">进入商城服务，需连接网络</t>
     </r>
@@ -2191,6 +2234,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">请查看您的网络连接</t>
     </r>
@@ -2208,6 +2252,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">点击以下按键重试</t>
     </r>
@@ -2281,6 +2326,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">自动播放模式已开启 </t>
     </r>
@@ -2298,6 +2344,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">定位后将自动播放景点语音讲解。点击图标可关闭此模式</t>
     </r>
@@ -2329,6 +2376,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">自动播放模式已关闭 </t>
     </r>
@@ -2346,6 +2394,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">点击图标可开启此模式，定位后将自动播放景点语音讲解</t>
     </r>
@@ -2434,6 +2483,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">タップして</t>
     </r>
@@ -2451,6 +2501,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">コードをスキャンしてください</t>
     </r>
@@ -2461,6 +2512,7 @@
         <sz val="12"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">탭하여 </t>
     </r>
@@ -2478,6 +2530,7 @@
         <sz val="12"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">코드를 스캔하세요</t>
     </r>
@@ -2527,6 +2580,7 @@
         <sz val="12"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">에러</t>
     </r>
@@ -2544,6 +2598,7 @@
         <sz val="12"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">스캔된 바코드 해독 불가</t>
     </r>
@@ -2561,6 +2616,7 @@
         <sz val="12"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">인증정보를 수동으로 입력해 주세요</t>
     </r>
@@ -2889,6 +2945,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">本当にこのアカウントを削除しますか</t>
     </r>
@@ -2906,6 +2963,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">関連する全てのオーディオガイドも削除されます</t>
     </r>
@@ -2925,6 +2983,7 @@
         <sz val="12"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">정말로 이 계정을 삭제하시겠습니까</t>
     </r>
@@ -2942,6 +3001,7 @@
         <sz val="12"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">모든 관련 음성가이드도 함께 제거됩니다</t>
     </r>
@@ -2971,6 +3031,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">确定要删除此帐户吗？</t>
     </r>
@@ -2990,6 +3051,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">所有相关的语音讲解也将被删除！</t>
     </r>
@@ -3066,6 +3128,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">本当に登録地点を削除しますか</t>
     </r>
@@ -3085,6 +3148,7 @@
         <sz val="12"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">정말로 귀하의 사용자지정 포인트를 삭제하시겠습니까</t>
     </r>
@@ -3260,6 +3324,7 @@
         <sz val="12"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">앱 이용 중에 자동재생 기능을 기본으로 설정하고 싶으신 경우</t>
     </r>
@@ -3277,6 +3342,7 @@
         <sz val="12"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">설정하세요</t>
     </r>
@@ -3365,6 +3431,7 @@
         <sz val="12"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">다음에 시작할 때</t>
     </r>
@@ -3382,6 +3449,7 @@
         <sz val="12"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">튜토리얼이 표시되는 것을 원하시는 경우</t>
     </r>
@@ -3399,6 +3467,7 @@
         <sz val="12"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">설정하세요</t>
     </r>
@@ -3503,6 +3572,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">阅读</t>
     </r>
@@ -3522,6 +3592,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">服务隐私声明</t>
     </r>
@@ -3614,6 +3685,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">阅读</t>
     </r>
@@ -3633,6 +3705,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">服务的条款和条件</t>
     </r>
@@ -3920,6 +3993,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">添加自定义图钉名称</t>
     </r>
@@ -3964,6 +4038,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">登録地点説明を追加する </t>
     </r>
@@ -3981,6 +4056,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">任意</t>
     </r>
@@ -4000,6 +4076,7 @@
         <sz val="12"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">사용자지정 포인트 설명 추가 </t>
     </r>
@@ -4017,6 +4094,7 @@
         <sz val="12"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">선택</t>
     </r>
@@ -4046,6 +4124,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">添加自定义图钉描述</t>
     </r>
@@ -4065,6 +4144,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">可选</t>
     </r>
@@ -4562,6 +4642,7 @@
         <sz val="12"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">경로계산에 실패하였습니다</t>
     </r>
@@ -4620,6 +4701,7 @@
         <sz val="12"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">현재 위치를 알 수 없습니다</t>
     </r>
@@ -4675,6 +4757,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ナビゲーションが進行中です。本当に中止してここを離れてもよろしいですか</t>
     </r>
@@ -4694,6 +4777,7 @@
         <sz val="12"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">길찾기가 진행 중입니다</t>
     </r>
@@ -4711,6 +4795,7 @@
         <sz val="12"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">정말로 중지하고 나가시겠습니까</t>
     </r>
@@ -4792,6 +4877,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">归属</t>
     </r>
@@ -4811,6 +4897,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，您有权了解我们如何使用您在享用我们服务期间所收集的信息。您在此了解并同意：</t>
     </r>
@@ -4871,6 +4958,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">服务条款和条件</t>
     </r>
@@ -4931,6 +5019,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">服务隐私声明</t>
     </r>
@@ -5295,6 +5384,7 @@
         <sz val="12"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">여기를 클릭하여 자동재생 모드를 활성화시키세요</t>
     </r>
@@ -5312,6 +5402,7 @@
         <sz val="12"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">흥미장소 근처에 접근할 때</t>
     </r>
@@ -5329,6 +5420,7 @@
         <sz val="12"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">음성해설이 자동으로 시작됩니다</t>
     </r>
@@ -5346,6 +5438,7 @@
         <sz val="12"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">다시 클릭하여 이 모드를 비활성화시키세요</t>
     </r>
@@ -5483,6 +5576,7 @@
         <color rgb="FF4D4843"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">다음 실행 때 튜토리얼을 보시겠습니까</t>
     </r>
@@ -5540,6 +5634,7 @@
         <color rgb="FF4D4843"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">언어를 변경하고 싶으신 경우</t>
     </r>
@@ -5559,6 +5654,7 @@
         <color rgb="FF4D4843"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">계정 구역에서 맵을 삭제하신 후 맵을 다시 다운로드해 주십시오</t>
     </r>
@@ -5611,6 +5707,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">良い旅を！</t>
     </r>
@@ -5621,6 +5718,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">좋은 여행이 되십시오</t>
     </r>
@@ -5658,6 +5756,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">旅途愉快！</t>
     </r>
@@ -5695,6 +5794,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">あなたが設定したツアーガイドは</t>
     </r>
@@ -5712,6 +5812,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">からご利用頂けます。</t>
     </r>
@@ -5722,6 +5823,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">당신의 </t>
     </r>
@@ -5739,6 +5841,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">맞춤 여행 가이드를 지금 검색 할 수 있습니다</t>
     </r>
@@ -5767,6 +5870,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">％</t>
     </r>
@@ -5784,6 +5888,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">为您的私人订制已就绪！</t>
     </r>
@@ -5822,6 +5927,7 @@
         <color rgb="FF333333"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">続行するには、</t>
     </r>
@@ -5841,6 +5947,7 @@
         <color rgb="FF333333"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">のロケーションサービスをオンにして、地図がローミング料金を発生させずにオフラインで機能するようにします。</t>
     </r>
@@ -5851,6 +5958,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">계속하려면 </t>
     </r>
@@ -5868,6 +5976,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">가 위치 서비스를 사용하도록 설정해 로밍 요금을 부과 없이 지도를 오프라인으로 작동할 수 있게 합니다</t>
     </r>
@@ -5896,6 +6005,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">为了继续，请您允许设备打开</t>
     </r>
@@ -5913,6 +6023,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">的位置服务，以便使地图可离线工作，从而不会产生漫游费用</t>
     </r>
@@ -5998,6 +6109,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">로그아웃 하시겠습니까</t>
     </r>
@@ -6057,6 +6169,7 @@
         <color rgb="FF333333"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">このアカウントから本当にログアウトしますか？</t>
     </r>
@@ -6076,6 +6189,7 @@
         <color rgb="FF333333"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">関連するすべてのオーディオガイドも削除されます！</t>
     </r>
@@ -6086,6 +6200,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">이 계정에서 정말 로그아웃하시겠습니까</t>
     </r>
@@ -6103,6 +6218,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">관련된 오디오 가이드도 모두 제거됩니다</t>
     </r>
@@ -6131,6 +6247,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">您真的要从此账号退出吗？</t>
     </r>
@@ -6148,6 +6265,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">所有相关的语音导览也将被清除</t>
     </r>
@@ -6230,6 +6348,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">オーディオガイドの更新が可能です。</t>
     </r>
@@ -6247,6 +6366,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">今すぐダウンロードしますか？</t>
     </r>
@@ -6257,6 +6377,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">오디오 가이드의 업데이트를 다운로드 할 수 있습니다</t>
     </r>
@@ -6274,6 +6395,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">지금 다운로드하시겠습니까</t>
     </r>
@@ -6302,6 +6424,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">此语音导览的更新可以下载。</t>
     </r>
@@ -6319,6 +6442,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">是否要立即下载？</t>
     </r>
@@ -6370,6 +6494,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">のダウンロードサイズは計 </t>
     </r>
@@ -6389,6 +6514,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">です。ダウンロードを続けますか？</t>
     </r>
@@ -6410,6 +6536,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">의 총 다운로드 용량은 </t>
     </r>
@@ -6429,6 +6556,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">입니다</t>
     </r>
@@ -6448,6 +6576,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">다운로드를 계속하시겠습니까</t>
     </r>
@@ -6480,6 +6609,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">下载</t>
     </r>
@@ -6499,6 +6629,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">的体积为</t>
     </r>
@@ -6518,6 +6649,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，确定下载？</t>
     </r>
@@ -6700,6 +6832,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">添加自定义图钉名称</t>
     </r>
@@ -6729,6 +6862,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">添加自定义图钉描述</t>
     </r>
@@ -6746,6 +6880,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">可选</t>
     </r>
@@ -6810,6 +6945,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">计算中</t>
     </r>
@@ -7003,6 +7139,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">输入名称</t>
     </r>
@@ -7037,6 +7174,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">艺术作品识别中</t>
     </r>
@@ -7057,6 +7195,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">한국어 </t>
     </r>
@@ -7790,6 +7929,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">주의</t>
     </r>
@@ -7830,6 +7970,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">실패</t>
     </r>
@@ -7891,6 +8032,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">경로를 찾던 중 오류가 발생했습니다</t>
     </r>
@@ -7976,6 +8118,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">現在地を計算するには位置情報サービスが必要です。</t>
     </r>
@@ -7993,6 +8136,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">アプリの設定から有効にして下さい。</t>
     </r>
@@ -8003,6 +8147,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">현재 위치를 찾으려면 위치 서비스가 필요합니다</t>
     </r>
@@ -8020,6 +8165,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">앱 설정에서 사용하도록 설정하십시오</t>
     </r>
@@ -8039,6 +8185,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">计算当前位置所需地点服务功能</t>
     </r>
@@ -8056,6 +8203,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">请从应用程序的设置中启动</t>
     </r>
@@ -8070,6 +8218,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">다른 계정으로 전환하고 있습니다</t>
     </r>
@@ -8089,6 +8238,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">네트워크 오류</t>
     </r>
@@ -8108,6 +8258,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">インターネットの接続が見つかりません。</t>
     </r>
@@ -8125,6 +8276,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">再度お試しください。</t>
     </r>
@@ -8135,6 +8287,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">인터넷 연결을 찾을 수 없습니다</t>
     </r>
@@ -8152,6 +8305,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">나중에 다시 시도하십시오</t>
     </r>
@@ -8171,6 +8325,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">未找到网络连接。</t>
     </r>
@@ -8188,6 +8343,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">请稍后再试</t>
     </r>
@@ -8220,6 +8376,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">携帯電話ネットワークで大量のデータをダウンロードすることはお勧めしません。 パッケージをダウンロードするには</t>
     </r>
@@ -8237,6 +8394,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ネットワークに接続して下さい。</t>
     </r>
@@ -8247,6 +8405,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">모바일 네트워크로 대용량 데이터를 다운로드하는 것은 권장하지 않습니다</t>
     </r>
@@ -8264,6 +8423,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">패키지 다운로드를 위해 </t>
     </r>
@@ -8281,6 +8441,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">네트워크에 연결하십시오</t>
     </r>
@@ -8309,6 +8470,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">我们不建议在蜂窝网络上下载大量数据。请连接</t>
     </r>
@@ -8326,6 +8488,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">网络以下载套装软件</t>
     </r>
@@ -8346,6 +8509,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">계속 사용하려면 앱을 업데이트 해야합니다</t>
     </r>
@@ -8365,6 +8529,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">あなたの現在地は圏外です</t>
     </r>
@@ -8382,6 +8547,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ルート計算とナビゲーションはできません。</t>
     </r>
@@ -8392,6 +8558,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">현재 위치가 도시 제한을 벗어났습니다</t>
     </r>
@@ -8409,6 +8576,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">경로 계산 및 탐색이 불가능합니다</t>
     </r>
@@ -8428,6 +8596,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">您当前的位置超出城区范围</t>
     </r>
@@ -8445,6 +8614,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">路线计算及导航无法使用</t>
     </r>
@@ -8504,6 +8674,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">사용자 이름과 암호를 입력하십시오</t>
     </r>
@@ -8524,6 +8695,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">사용자 이름과 암호를 확인한 후 다시 시도하십시오</t>
     </r>
@@ -8561,6 +8733,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ダウンロード中にエラーが生じました。</t>
     </r>
@@ -8578,6 +8751,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">もう一度やり直して下さい。</t>
     </r>
@@ -8588,6 +8762,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">패키지 다운로드 중 오류가 발생했습니다</t>
     </r>
@@ -8605,6 +8780,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">다시 시도하십시오</t>
     </r>
@@ -8633,6 +8809,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">下载旅游包时出现错误</t>
     </r>
@@ -8650,6 +8827,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">请重试</t>
     </r>
@@ -8778,6 +8956,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">データの同期中にエラーが発生しました！</t>
     </r>
@@ -8795,6 +8974,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">もう一度お試しください。</t>
     </r>
@@ -8805,6 +8985,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">데이터 동기화 중 오류가 발생했습니다</t>
     </r>
@@ -8822,6 +9003,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">나중에 다시 시도하십시오</t>
     </r>
@@ -8876,6 +9058,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">同步数据时发生了一些错误！</t>
     </r>
@@ -8893,6 +9076,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">请稍后再试</t>
     </r>
@@ -8979,6 +9163,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">작업 수행 중 오류가 발생했습니다</t>
     </r>
@@ -9028,6 +9213,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">良い旅を！</t>
     </r>
@@ -9038,6 +9224,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">좋은 여행이 되십시오</t>
     </r>
@@ -9066,6 +9253,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">旅途愉快！</t>
     </r>
@@ -9076,6 +9264,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">あなたが設定したツアーガイドは</t>
     </r>
@@ -9093,6 +9282,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">からご利用頂けます。</t>
     </r>
@@ -9103,6 +9293,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">당신의 </t>
     </r>
@@ -9120,6 +9311,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">맞춤 여행 가이드를 지금 검색 할 수 있습니다</t>
     </r>
@@ -9139,6 +9331,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">％</t>
     </r>
@@ -9156,6 +9349,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">为您的私人订制已就绪！</t>
     </r>
@@ -9166,6 +9360,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">オーディオガイドの更新が可能です。</t>
     </r>
@@ -9183,6 +9378,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">今すぐダウンロードしますか？</t>
     </r>
@@ -9193,6 +9389,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">오디오 가이드의 업데이트를 다운로드 할 수 있습니다</t>
     </r>
@@ -9210,6 +9407,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">지금 다운로드하시겠습니까</t>
     </r>
@@ -9229,6 +9427,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">此语音导览的更新可以下载。</t>
     </r>
@@ -9246,6 +9445,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">是否要立即下载？</t>
     </r>
@@ -9260,6 +9460,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">삭제하시겠습니까</t>
     </r>
@@ -9279,6 +9480,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">이 여행을 삭제 하시겠습니까</t>
     </r>
@@ -9296,6 +9498,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">이 여행은 다시 다운로드 할 수 있습니다</t>
     </r>
@@ -9344,6 +9547,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">您确定要删除此次行程的内容吗？</t>
     </r>
@@ -9361,6 +9565,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">行程”的条目将继续显示在此列表中，以便您将来可以重新下载该内容。</t>
     </r>
@@ -9391,6 +9596,7 @@
         <color rgb="FF333333"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">続行するには、</t>
     </r>
@@ -9410,6 +9616,7 @@
         <color rgb="FF333333"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">のロケーションサービスをオンにして、地図がローミング料金を発生させずにオフラインで機能するようにします。</t>
     </r>
@@ -9420,6 +9627,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">계속하려면 </t>
     </r>
@@ -9437,6 +9645,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">가 위치 서비스를 사용하도록 설정해 로밍 요금을 부과 없이 지도를 오프라인으로 작동할 수 있게 합니다</t>
     </r>
@@ -9465,6 +9674,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">为了继续，请您允许设备打开</t>
     </r>
@@ -9482,6 +9692,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">的位置服务，以便使地图可离线工作，从而不会产生漫游费用</t>
     </r>
@@ -9501,6 +9712,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">로그아웃 하시겠습니까</t>
     </r>
@@ -9521,6 +9733,7 @@
         <color rgb="FF333333"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">このアカウントから本当にログアウトしますか？</t>
     </r>
@@ -9540,6 +9753,7 @@
         <color rgb="FF333333"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">関連するすべてのオーディオガイドも削除されます！</t>
     </r>
@@ -9550,6 +9764,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">이 계정에서 정말 로그아웃하시겠습니까</t>
     </r>
@@ -9567,6 +9782,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">관련된 오디오 가이드도 모두 제거됩니다</t>
     </r>
@@ -9586,6 +9802,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">您真的要从此账号退出吗？</t>
     </r>
@@ -9603,6 +9820,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">所有相关的语音导览也将被清除</t>
     </r>
@@ -9617,6 +9835,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">请启用</t>
     </r>
@@ -9634,6 +9853,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">并重试</t>
     </r>
@@ -9778,6 +9998,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">コードをスキャンするにはここをクリックしてください</t>
     </r>
@@ -9797,6 +10018,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">코드를 스캔하려면 여기를 누르십시오</t>
     </r>
@@ -9825,6 +10047,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">点击此处扫描</t>
     </r>
@@ -9842,6 +10065,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">码</t>
     </r>
@@ -10432,6 +10656,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">包含</t>
     </r>
@@ -10449,6 +10674,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">未包含</t>
     </r>
@@ -10918,6 +11144,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">感谢订购！</t>
     </r>
@@ -10935,6 +11162,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">将收到邮件确认函，包含订单详情</t>
     </r>
@@ -11198,6 +11426,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">总人数应该在</t>
     </r>
@@ -11215,6 +11444,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">到</t>
     </r>
@@ -11232,6 +11462,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">之间</t>
     </r>
@@ -11467,6 +11698,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">在支付过程中出现错误</t>
     </r>
@@ -11484,6 +11716,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">请查看信用卡信息后重试</t>
     </r>
@@ -11597,6 +11830,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">进入商城服务，需连接网络</t>
     </r>
@@ -11614,6 +11848,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">请查看您的网络连接</t>
     </r>
@@ -11631,6 +11866,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">点击以下按键重试</t>
     </r>
@@ -11729,6 +11965,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">继续，同意我们的 </t>
     </r>
@@ -11746,6 +11983,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">条款及细则</t>
     </r>
@@ -12086,6 +12324,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">您有权了解</t>
     </r>
@@ -12103,6 +12342,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">如何使用个人数据。</t>
     </r>
@@ -12120,6 +12360,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">您在此接受：</t>
     </r>
@@ -12161,6 +12402,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">服务条款和条件</t>
     </r>
@@ -12195,6 +12437,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">已阅读</t>
     </r>
@@ -12212,6 +12455,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">服务隐私声明</t>
     </r>
@@ -12262,6 +12506,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">本当にこのアカウントを削除しますか</t>
     </r>
@@ -12279,6 +12524,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">関連する全てのオーディオガイドも削除されます</t>
     </r>
@@ -12298,6 +12544,7 @@
         <sz val="12"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">정말로 이 계정을 삭제하시겠습니까</t>
     </r>
@@ -12315,6 +12562,7 @@
         <sz val="12"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">모든 관련 음성가이드도 함께 제거됩니다</t>
     </r>
@@ -12344,6 +12592,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">确定要删除此帐户吗？</t>
     </r>
@@ -12363,6 +12612,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">所有相关的语音讲解也将被删除！确定要删除此帐户吗？</t>
     </r>
@@ -12382,6 +12632,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">所有相关的语音讲解也将被删除！确定要删除此帐户吗？</t>
     </r>
@@ -12401,6 +12652,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">所有相关的语音讲解也将被删除！确定要删除此帐户吗？</t>
     </r>
@@ -12420,6 +12672,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">所有相关的语音讲解也将被删除！</t>
     </r>
@@ -12503,6 +12756,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">阅读</t>
     </r>
@@ -12522,6 +12776,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">服务隐私声明</t>
     </r>
@@ -12569,6 +12824,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">阅读</t>
     </r>
@@ -12588,6 +12844,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">服务的条款和条件</t>
     </r>
@@ -12627,6 +12884,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">添加自定义图钉名称…</t>
     </r>
@@ -12656,6 +12914,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">登録地点説明を追加する </t>
     </r>
@@ -12673,6 +12932,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">任意</t>
     </r>
@@ -12692,6 +12952,7 @@
         <sz val="12"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">사용자지정 포인트 설명 추가 </t>
     </r>
@@ -12709,6 +12970,7 @@
         <sz val="12"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">선택</t>
     </r>
@@ -12748,6 +13010,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">添加自定义图钉描述…</t>
     </r>
@@ -12767,6 +13030,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">可选</t>
     </r>
@@ -12834,6 +13098,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">归属</t>
     </r>
@@ -12853,6 +13118,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，您有权了解我们如何使用您在享用我们服务期间所收集的信息。您在此了解并同意：</t>
     </r>
@@ -12910,6 +13176,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">服务条款和条件</t>
     </r>
@@ -12967,6 +13234,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">服务隐私声明</t>
     </r>
@@ -13045,6 +13313,7 @@
       <sz val="11"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -13084,12 +13353,14 @@
       <sz val="11"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -13109,6 +13380,7 @@
       <color rgb="FF333333"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -13133,6 +13405,7 @@
       <sz val="12"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -13151,6 +13424,7 @@
       <color rgb="FF212121"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -13164,6 +13438,7 @@
       <color rgb="FF4D4843"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -13196,6 +13471,7 @@
       <sz val="10"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -13209,6 +13485,7 @@
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -13937,14 +14214,14 @@
   <dimension ref="A1:AC133"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="E1048540" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="E121" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A1048540" activeCellId="0" sqref="A1048540"/>
-      <selection pane="bottomRight" activeCell="E134" activeCellId="0" sqref="E134"/>
+      <selection pane="bottomLeft" activeCell="A121" activeCellId="0" sqref="A121"/>
+      <selection pane="bottomRight" activeCell="G133" activeCellId="0" sqref="G133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="2" style="0" width="30.02"/>
@@ -21963,7 +22240,7 @@
       <selection pane="bottomRight" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.14"/>
